--- a/Résultats/Graphiques.xlsx
+++ b/Résultats/Graphiques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theo1\Documents\5A Insa\Semestre 2\Projet Capteur\GitHub\THEO_MARLENE_VIRGILE_Projet_Capteur\Résultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B69D736-C80F-4032-BF53-2593FB9BA26E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D5DFF9-10BB-4094-A846-FB1C4DC976F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{2F701ED7-4202-4E62-896A-2739AAB47C32}"/>
   </bookViews>
@@ -3834,7 +3834,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -3843,10 +3843,8 @@
             <c:v>2B-001</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3866,6 +3864,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Deformation!$A$93:$A$99</c:f>
@@ -3926,7 +3938,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-6541-438D-9B4E-C96446070290}"/>
@@ -3948,10 +3960,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -3971,6 +3981,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Deformation!$A$93:$A$99</c:f>
@@ -4031,7 +4055,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-6541-438D-9B4E-C96446070290}"/>
@@ -4053,10 +4077,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4076,6 +4098,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Deformation!$A$93:$A$99</c:f>
@@ -4136,7 +4172,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-6541-438D-9B4E-C96446070290}"/>
@@ -4158,10 +4194,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4181,6 +4215,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Deformation!$A$93:$A$99</c:f>
@@ -4241,7 +4289,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-6541-438D-9B4E-C96446070290}"/>
@@ -4263,10 +4311,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4286,6 +4332,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Deformation!$A$93:$A$99</c:f>
@@ -4346,7 +4406,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-6541-438D-9B4E-C96446070290}"/>
@@ -4368,10 +4428,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4391,6 +4449,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Deformation!$A$93:$A$99</c:f>
@@ -4451,7 +4523,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-6541-438D-9B4E-C96446070290}"/>
@@ -4876,7 +4948,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4893,10 +4965,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -4916,6 +4986,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Deformation!$A$102:$A$108</c:f>
@@ -4976,7 +5060,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-D97E-4EFD-8775-F52879352E53}"/>
@@ -4998,10 +5082,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5021,6 +5103,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Deformation!$A$102:$A$108</c:f>
@@ -5081,7 +5177,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-D97E-4EFD-8775-F52879352E53}"/>
@@ -5103,10 +5199,8 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5126,6 +5220,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Deformation!$A$102:$A$108</c:f>
@@ -5186,7 +5294,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-D97E-4EFD-8775-F52879352E53}"/>
@@ -10173,14 +10281,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>706243</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>37170</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>3717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>130097</xdr:colOff>
+      <xdr:colOff>260195</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>74342</xdr:rowOff>
     </xdr:to>
@@ -10210,15 +10318,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>167269</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>37171</xdr:rowOff>
+      <xdr:colOff>297367</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>92926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>390294</xdr:colOff>
-      <xdr:row>118</xdr:row>
-      <xdr:rowOff>107795</xdr:rowOff>
+      <xdr:colOff>520392</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>163551</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14520,30 +14628,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="E59:E68"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="D69:D76"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="E50:E58"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="E21:E30"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="D31:D40"/>
+    <mergeCell ref="E31:E40"/>
     <mergeCell ref="C2:C10"/>
     <mergeCell ref="D2:D10"/>
     <mergeCell ref="E2:E10"/>
     <mergeCell ref="C11:C20"/>
     <mergeCell ref="D11:D20"/>
     <mergeCell ref="E11:E20"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="E21:E30"/>
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="D31:D40"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:D58"/>
-    <mergeCell ref="E50:E58"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="D59:D68"/>
-    <mergeCell ref="E59:E68"/>
-    <mergeCell ref="C69:C76"/>
-    <mergeCell ref="D69:D76"/>
-    <mergeCell ref="E69:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15393,13 +15501,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E59:E68"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="E11:E20"/>
-    <mergeCell ref="E21:E30"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="E50:E58"/>
     <mergeCell ref="C59:C68"/>
     <mergeCell ref="D2:D10"/>
     <mergeCell ref="D11:D20"/>
@@ -15414,6 +15515,13 @@
     <mergeCell ref="C31:C40"/>
     <mergeCell ref="C41:C49"/>
     <mergeCell ref="C50:C58"/>
+    <mergeCell ref="E59:E68"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="E11:E20"/>
+    <mergeCell ref="E21:E30"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="E50:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16358,30 +16466,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="E59:E68"/>
+    <mergeCell ref="C69:C76"/>
+    <mergeCell ref="D69:D76"/>
+    <mergeCell ref="E69:E76"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D41:D49"/>
+    <mergeCell ref="E41:E49"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D50:D58"/>
+    <mergeCell ref="E50:E58"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="E21:E30"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="D31:D40"/>
+    <mergeCell ref="E31:E40"/>
     <mergeCell ref="C2:C10"/>
     <mergeCell ref="D2:D10"/>
     <mergeCell ref="E2:E10"/>
     <mergeCell ref="C11:C20"/>
     <mergeCell ref="D11:D20"/>
     <mergeCell ref="E11:E20"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="E21:E30"/>
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="D31:D40"/>
-    <mergeCell ref="E31:E40"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="E41:E49"/>
-    <mergeCell ref="C50:C58"/>
-    <mergeCell ref="D50:D58"/>
-    <mergeCell ref="E50:E58"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="D59:D68"/>
-    <mergeCell ref="E59:E68"/>
-    <mergeCell ref="C69:C76"/>
-    <mergeCell ref="D69:D76"/>
-    <mergeCell ref="E69:E76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17219,12 +17327,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="C11:C20"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="E11:E20"/>
     <mergeCell ref="E49:E57"/>
     <mergeCell ref="C58:C67"/>
     <mergeCell ref="D58:D67"/>
@@ -17240,6 +17342,12 @@
     <mergeCell ref="E40:E48"/>
     <mergeCell ref="C49:C57"/>
     <mergeCell ref="D49:D57"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="E11:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18088,18 +18196,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:C10"/>
-    <mergeCell ref="D2:D10"/>
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="C11:C20"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="E11:E20"/>
-    <mergeCell ref="C21:C30"/>
-    <mergeCell ref="D21:D30"/>
-    <mergeCell ref="E21:E30"/>
-    <mergeCell ref="C31:C40"/>
-    <mergeCell ref="D31:D40"/>
-    <mergeCell ref="E31:E40"/>
     <mergeCell ref="C59:C68"/>
     <mergeCell ref="D59:D68"/>
     <mergeCell ref="E59:E68"/>
@@ -18109,6 +18205,18 @@
     <mergeCell ref="C50:C58"/>
     <mergeCell ref="D50:D58"/>
     <mergeCell ref="E50:E58"/>
+    <mergeCell ref="C21:C30"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="E21:E30"/>
+    <mergeCell ref="C31:C40"/>
+    <mergeCell ref="D31:D40"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="D2:D10"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="E11:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18123,7 +18231,7 @@
   <dimension ref="A1:AO159"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" zoomScale="41" workbookViewId="0">
-      <selection activeCell="W116" sqref="W116"/>
+      <selection activeCell="V118" sqref="V117:V118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23054,15 +23162,84 @@
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="E2:E10"/>
-    <mergeCell ref="C11:C20"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="E11:E20"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="D59:D68"/>
-    <mergeCell ref="E59:E68"/>
-    <mergeCell ref="J2:J10"/>
-    <mergeCell ref="K2:K10"/>
+    <mergeCell ref="AE69:AE76"/>
+    <mergeCell ref="AF69:AF76"/>
+    <mergeCell ref="AG69:AG76"/>
+    <mergeCell ref="AE50:AE58"/>
+    <mergeCell ref="AF50:AF58"/>
+    <mergeCell ref="AG50:AG58"/>
+    <mergeCell ref="AE59:AE68"/>
+    <mergeCell ref="AF59:AF68"/>
+    <mergeCell ref="AG59:AG68"/>
+    <mergeCell ref="AE31:AE40"/>
+    <mergeCell ref="AF31:AF40"/>
+    <mergeCell ref="AG31:AG40"/>
+    <mergeCell ref="AE41:AE49"/>
+    <mergeCell ref="AF41:AF49"/>
+    <mergeCell ref="AG41:AG49"/>
+    <mergeCell ref="X59:X68"/>
+    <mergeCell ref="Y59:Y68"/>
+    <mergeCell ref="Z59:Z68"/>
+    <mergeCell ref="X50:X58"/>
+    <mergeCell ref="Y50:Y58"/>
+    <mergeCell ref="Z50:Z58"/>
+    <mergeCell ref="AE2:AE10"/>
+    <mergeCell ref="AF2:AF10"/>
+    <mergeCell ref="AG2:AG10"/>
+    <mergeCell ref="AE11:AE20"/>
+    <mergeCell ref="AF11:AF20"/>
+    <mergeCell ref="AG11:AG20"/>
+    <mergeCell ref="AE21:AE30"/>
+    <mergeCell ref="X41:X49"/>
+    <mergeCell ref="Y41:Y49"/>
+    <mergeCell ref="Z41:Z49"/>
+    <mergeCell ref="X21:X30"/>
+    <mergeCell ref="Y21:Y30"/>
+    <mergeCell ref="Z21:Z30"/>
+    <mergeCell ref="X31:X40"/>
+    <mergeCell ref="Y31:Y40"/>
+    <mergeCell ref="Z31:Z40"/>
+    <mergeCell ref="X2:X10"/>
+    <mergeCell ref="Y2:Y10"/>
+    <mergeCell ref="Z2:Z10"/>
+    <mergeCell ref="X11:X20"/>
+    <mergeCell ref="Y11:Y20"/>
+    <mergeCell ref="Z11:Z20"/>
+    <mergeCell ref="AF21:AF30"/>
+    <mergeCell ref="AG21:AG30"/>
+    <mergeCell ref="Q59:Q68"/>
+    <mergeCell ref="R59:R68"/>
+    <mergeCell ref="S59:S68"/>
+    <mergeCell ref="Q69:Q76"/>
+    <mergeCell ref="R69:R76"/>
+    <mergeCell ref="S69:S76"/>
+    <mergeCell ref="Q41:Q49"/>
+    <mergeCell ref="R41:R49"/>
+    <mergeCell ref="S41:S49"/>
+    <mergeCell ref="Q50:Q58"/>
+    <mergeCell ref="R50:R58"/>
+    <mergeCell ref="S50:S58"/>
+    <mergeCell ref="Q21:Q30"/>
+    <mergeCell ref="R21:R30"/>
+    <mergeCell ref="S21:S30"/>
+    <mergeCell ref="Q31:Q40"/>
+    <mergeCell ref="R31:R40"/>
+    <mergeCell ref="S31:S40"/>
+    <mergeCell ref="Q2:Q10"/>
+    <mergeCell ref="R2:R10"/>
+    <mergeCell ref="S2:S10"/>
+    <mergeCell ref="Q11:Q20"/>
+    <mergeCell ref="R11:R20"/>
+    <mergeCell ref="S11:S20"/>
+    <mergeCell ref="L58:L67"/>
+    <mergeCell ref="K21:K29"/>
+    <mergeCell ref="L21:L29"/>
+    <mergeCell ref="J30:J39"/>
+    <mergeCell ref="K30:K39"/>
+    <mergeCell ref="L30:L39"/>
+    <mergeCell ref="J40:J48"/>
+    <mergeCell ref="K40:K48"/>
+    <mergeCell ref="L40:L48"/>
     <mergeCell ref="L2:L10"/>
     <mergeCell ref="J11:J20"/>
     <mergeCell ref="K11:K20"/>
@@ -23087,84 +23264,15 @@
     <mergeCell ref="L49:L57"/>
     <mergeCell ref="J58:J67"/>
     <mergeCell ref="K58:K67"/>
-    <mergeCell ref="L58:L67"/>
-    <mergeCell ref="K21:K29"/>
-    <mergeCell ref="L21:L29"/>
-    <mergeCell ref="J30:J39"/>
-    <mergeCell ref="K30:K39"/>
-    <mergeCell ref="L30:L39"/>
-    <mergeCell ref="J40:J48"/>
-    <mergeCell ref="K40:K48"/>
-    <mergeCell ref="L40:L48"/>
-    <mergeCell ref="Q21:Q30"/>
-    <mergeCell ref="R21:R30"/>
-    <mergeCell ref="S21:S30"/>
-    <mergeCell ref="Q31:Q40"/>
-    <mergeCell ref="R31:R40"/>
-    <mergeCell ref="S31:S40"/>
-    <mergeCell ref="Q2:Q10"/>
-    <mergeCell ref="R2:R10"/>
-    <mergeCell ref="S2:S10"/>
-    <mergeCell ref="Q11:Q20"/>
-    <mergeCell ref="R11:R20"/>
-    <mergeCell ref="S11:S20"/>
-    <mergeCell ref="Q59:Q68"/>
-    <mergeCell ref="R59:R68"/>
-    <mergeCell ref="S59:S68"/>
-    <mergeCell ref="Q69:Q76"/>
-    <mergeCell ref="R69:R76"/>
-    <mergeCell ref="S69:S76"/>
-    <mergeCell ref="Q41:Q49"/>
-    <mergeCell ref="R41:R49"/>
-    <mergeCell ref="S41:S49"/>
-    <mergeCell ref="Q50:Q58"/>
-    <mergeCell ref="R50:R58"/>
-    <mergeCell ref="S50:S58"/>
-    <mergeCell ref="AE2:AE10"/>
-    <mergeCell ref="AF2:AF10"/>
-    <mergeCell ref="AG2:AG10"/>
-    <mergeCell ref="AE11:AE20"/>
-    <mergeCell ref="AF11:AF20"/>
-    <mergeCell ref="AG11:AG20"/>
-    <mergeCell ref="AE21:AE30"/>
-    <mergeCell ref="X41:X49"/>
-    <mergeCell ref="Y41:Y49"/>
-    <mergeCell ref="Z41:Z49"/>
-    <mergeCell ref="X21:X30"/>
-    <mergeCell ref="Y21:Y30"/>
-    <mergeCell ref="Z21:Z30"/>
-    <mergeCell ref="X31:X40"/>
-    <mergeCell ref="Y31:Y40"/>
-    <mergeCell ref="Z31:Z40"/>
-    <mergeCell ref="X2:X10"/>
-    <mergeCell ref="Y2:Y10"/>
-    <mergeCell ref="Z2:Z10"/>
-    <mergeCell ref="X11:X20"/>
-    <mergeCell ref="Y11:Y20"/>
-    <mergeCell ref="Z11:Z20"/>
-    <mergeCell ref="AF21:AF30"/>
-    <mergeCell ref="AG21:AG30"/>
-    <mergeCell ref="AE31:AE40"/>
-    <mergeCell ref="AF31:AF40"/>
-    <mergeCell ref="AG31:AG40"/>
-    <mergeCell ref="AE41:AE49"/>
-    <mergeCell ref="AF41:AF49"/>
-    <mergeCell ref="AG41:AG49"/>
-    <mergeCell ref="X59:X68"/>
-    <mergeCell ref="Y59:Y68"/>
-    <mergeCell ref="Z59:Z68"/>
-    <mergeCell ref="X50:X58"/>
-    <mergeCell ref="Y50:Y58"/>
-    <mergeCell ref="Z50:Z58"/>
-    <mergeCell ref="AE69:AE76"/>
-    <mergeCell ref="AF69:AF76"/>
-    <mergeCell ref="AG69:AG76"/>
-    <mergeCell ref="AE50:AE58"/>
-    <mergeCell ref="AF50:AF58"/>
-    <mergeCell ref="AG50:AG58"/>
-    <mergeCell ref="AE59:AE68"/>
-    <mergeCell ref="AF59:AF68"/>
-    <mergeCell ref="AG59:AG68"/>
+    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="E11:E20"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="D59:D68"/>
+    <mergeCell ref="E59:E68"/>
+    <mergeCell ref="J2:J10"/>
+    <mergeCell ref="K2:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
